--- a/10b/7_2024_01_23/elsodoga.xlsx
+++ b/10b/7_2024_01_23/elsodoga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\7_2024_01_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5513A43-77B8-4516-B788-21BC239D2721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AD9C48-9DBF-4A97-BBAF-203FC7D96C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D0B7BEFE-BF8E-46E1-B461-CEBD555F0D92}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0&quot; &quot;\f\ő"/>
+    <numFmt numFmtId="164" formatCode="0&quot; &quot;\f\ő"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1107,8 +1107,8 @@
         <v>29</v>
       </c>
       <c r="B20" s="5">
-        <f>_xlfn.MAXIFS(G2:G16,I2:I16,"nem")</f>
-        <v>31.666666666666668</v>
+        <f>_xlfn.MAXIFS(G2:G16,I2:I16,"igen")</f>
+        <v>17.333333333333332</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
